--- a/public/data.xlsx
+++ b/public/data.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\devesh yadav\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\devesh yadav\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{548E738F-1389-4D36-BA8E-05FEC8467A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71DFF0BD-98E5-4308-844C-20314F3F871D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="426">
   <si>
     <t>Sr.No</t>
   </si>
@@ -69,6 +70,9 @@
     <t>Abishek Gupta</t>
   </si>
   <si>
+    <t>Smart Yadav</t>
+  </si>
+  <si>
     <t>Soyal</t>
   </si>
   <si>
@@ -81,6 +85,9 @@
     <t>Aryan</t>
   </si>
   <si>
+    <t>Madav Agarwal</t>
+  </si>
+  <si>
     <t>Momin Khan</t>
   </si>
   <si>
@@ -90,6 +97,9 @@
     <t>Ishant Verma</t>
   </si>
   <si>
+    <t>Priyanshu Yaday</t>
+  </si>
+  <si>
     <t>Sachin Kumar</t>
   </si>
   <si>
@@ -123,9 +133,15 @@
     <t>Sujeet Kumar Bharti</t>
   </si>
   <si>
+    <t>Manish Km.Verma</t>
+  </si>
+  <si>
     <t>Sahil</t>
   </si>
   <si>
+    <t>Raj Shekher Tiwari</t>
+  </si>
+  <si>
     <t>Devraj Singh</t>
   </si>
   <si>
@@ -447,6 +463,9 @@
     <t xml:space="preserve">Ashok Singh </t>
   </si>
   <si>
+    <t xml:space="preserve">Om Prakash </t>
+  </si>
+  <si>
     <t xml:space="preserve">Sunil Kumar </t>
   </si>
   <si>
@@ -477,6 +496,9 @@
     <t xml:space="preserve">Bhanu Pratap Singh </t>
   </si>
   <si>
+    <t xml:space="preserve">Bharat Kasyap </t>
+  </si>
+  <si>
     <t xml:space="preserve">Amrish Rathore </t>
   </si>
   <si>
@@ -537,6 +559,9 @@
     <t xml:space="preserve">Sanjay Kumar Trivedi </t>
   </si>
   <si>
+    <t>Sachendra Sing</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kamlesh Kumar </t>
   </si>
   <si>
@@ -696,6 +721,12 @@
     <t>Sanjay Gupta</t>
   </si>
   <si>
+    <t>Mr.Abhay Singh</t>
+  </si>
+  <si>
+    <t>Mr.Anil Kum.Mishra</t>
+  </si>
+  <si>
     <t>Brij Raj Singh</t>
   </si>
   <si>
@@ -708,6 +739,9 @@
     <t>Manoj Kumar</t>
   </si>
   <si>
+    <t>Late.Mr.Shyam Lal Bharti</t>
+  </si>
+  <si>
     <t>Shiv Kumar Sharma</t>
   </si>
   <si>
@@ -765,6 +799,9 @@
     <t>Rajjab Ali</t>
   </si>
   <si>
+    <t>Suresh Yaday</t>
+  </si>
+  <si>
     <t>Manish Gupta</t>
   </si>
   <si>
@@ -957,59 +994,334 @@
     <t>3rd Floor Shukla Complex, Khushi Vihar Colony , Opposite DRM office, Para Road, Lucknow, Uttar Pradesh 226011</t>
   </si>
   <si>
-    <t>Suresh Yadav</t>
-  </si>
-  <si>
-    <t>Shyam Lal Bharti</t>
-  </si>
-  <si>
-    <t>Anil Kumar Mishra</t>
-  </si>
-  <si>
-    <t>Abhay Singh</t>
-  </si>
-  <si>
-    <t>Om Prakash Srivastav</t>
-  </si>
-  <si>
-    <t>Sachendra Singh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bharat Kashyap </t>
-  </si>
-  <si>
-    <t>Samrat Yadav</t>
-  </si>
-  <si>
-    <t>Madhav Agarwal</t>
-  </si>
-  <si>
-    <t>Priyanshu Yadav</t>
-  </si>
-  <si>
-    <t>Manish Kumar Verma</t>
-  </si>
-  <si>
-    <t>Raj Shekhar Tiwari</t>
+    <t>Date:</t>
+  </si>
+  <si>
+    <t>R) Page</t>
+  </si>
+  <si>
+    <t>Vansh Sharma ; DOB -3 07/12/2004. father's Names Manish Kumar Sharma 10ths 78%; 12th + 56%; WA, 9890-9596864947 W.N- 9598 8 6 4 9 6 7</t>
+  </si>
+  <si>
+    <t>@ Suryansh tiwari ; &amp; DOB 3 26/12/2004 father Names Pradeep kumar tiwari 10th 75%; 12th 165%;</t>
+  </si>
+  <si>
+    <t>W.N→ 8601675-49112</t>
+  </si>
+  <si>
+    <t>3 Rajan gupta; DOB -+ 01/07/2006.</t>
+  </si>
+  <si>
+    <t>fother's Names</t>
+  </si>
+  <si>
+    <t>кстам</t>
+  </si>
+  <si>
+    <t>Santosh W.N→ 93688178845</t>
+  </si>
+  <si>
+    <t>Aman Hooda ; DOB 07/12/2005. dother's Name -&amp;-Aanand prakash. W.N 9266568173</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>Anurag yadav :</t>
+  </si>
+  <si>
+    <t>DOB 9110912.005 DOB109 12005; 10th 70% 12 75% father's Name Prem pal singh.</t>
+  </si>
+  <si>
+    <t>; DOB - 02/06/2004</t>
+  </si>
+  <si>
+    <t>Father's Names.</t>
+  </si>
+  <si>
+    <t>Raj Rawat</t>
+  </si>
+  <si>
+    <t>10th-s</t>
+  </si>
+  <si>
+    <t>WN.S</t>
+  </si>
+  <si>
+    <t>Ram</t>
+  </si>
+  <si>
+    <t>dhan Rawat</t>
+  </si>
+  <si>
+    <t>63.83; 12th 56.4%</t>
+  </si>
+  <si>
+    <t>→</t>
+  </si>
+  <si>
+    <t>8090 42 2583</t>
+  </si>
+  <si>
+    <t>DHEERAT Singh ; DOB→ 20/10/2006</t>
+  </si>
+  <si>
+    <t>f. N. Mahesh chandra</t>
+  </si>
+  <si>
+    <t>10th &amp; 70%</t>
+  </si>
+  <si>
+    <t>12th -875%.</t>
+  </si>
+  <si>
+    <t>W.N→ 701748 13 888</t>
+  </si>
+  <si>
+    <t>Khushab das</t>
+  </si>
+  <si>
+    <t>manikpwi</t>
+  </si>
+  <si>
+    <t>father's Name &amp; Same das manikpou 10th 360%; 12th -50%</t>
+  </si>
+  <si>
+    <t>DOB: 19/08/2005; WIN 7860984461</t>
+  </si>
+  <si>
+    <t>AFRAZ Khan ; DOB - 29/04/2005 Father's Naure &amp; Ikheday khan</t>
+  </si>
+  <si>
+    <t>10th - 60%.</t>
+  </si>
+  <si>
+    <t>12th 63.</t>
+  </si>
+  <si>
+    <t>WN - 7505775598</t>
+  </si>
+  <si>
+    <t>© Aman Hooda ; DOB 7/12/2005-</t>
+  </si>
+  <si>
+    <t>10th 60% 1 12th - 63.6%.</t>
+  </si>
+  <si>
+    <t>WIND 9266568173</t>
+  </si>
+  <si>
+    <t>Shashikant Shukla Stashibant studela 7 9 8 5 6 6 8 1 8 4 Mr Satendra</t>
+  </si>
+  <si>
+    <t>N- Uday tewar Fr Ashok tiwari</t>
+  </si>
+  <si>
+    <t>Kumar-</t>
+  </si>
+  <si>
+    <t>85284149 44</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Sailesh Km.</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Vinod</t>
+  </si>
+  <si>
+    <t>9565 37 4 449</t>
+  </si>
+  <si>
+    <t>Am.</t>
+  </si>
+  <si>
+    <t>N-Abhishek Pratap Singh</t>
+  </si>
+  <si>
+    <t>F- Veer Bahadur Singh</t>
+  </si>
+  <si>
+    <t>Rahat (F) Rangeet singh 9540737206</t>
+  </si>
+  <si>
+    <t>A Parvinder sing (F).</t>
+  </si>
+  <si>
+    <t>Roll Number</t>
+  </si>
+  <si>
+    <t>Ram prakash a5 40737206</t>
+  </si>
+  <si>
+    <t>Rahul</t>
+  </si>
+  <si>
+    <t>F.</t>
+  </si>
+  <si>
+    <t>Parvinder Singh - Roll wumber Ranjeet Singh -976 1088423</t>
+  </si>
+  <si>
+    <t>7/140</t>
+  </si>
+  <si>
+    <t>(R) Page:</t>
+  </si>
+  <si>
+    <t>Akhil deishra ; DOB - 25/05/2008 fatherr's Name+ Umanath Mishra</t>
+  </si>
+  <si>
+    <t>10th</t>
+  </si>
+  <si>
+    <t>WIN 7985936842</t>
+  </si>
+  <si>
+    <t>Heidyans bhatt : DOB-3. 24/01/2008 foother's Name's Ajay kumar bhatt 10th 80.67</t>
+  </si>
+  <si>
+    <t>W.NS 7905625660</t>
+  </si>
+  <si>
+    <t>Sudhanshu singh, DOB + 12/07/2005 father's Names Sanjay singh</t>
+  </si>
+  <si>
+    <t>10th &amp; 65%.</t>
+  </si>
+  <si>
+    <t>; w⋅N + 92 1 972 1713</t>
+  </si>
+  <si>
+    <t>Akhil Mishra</t>
+  </si>
+  <si>
+    <t>Umanath Mishra</t>
+  </si>
+  <si>
+    <t>Hridyans Bhatt</t>
+  </si>
+  <si>
+    <t>Ajay Kumar Bhatt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sudhanshu Singh </t>
+  </si>
+  <si>
+    <t>Sanjay Singh</t>
+  </si>
+  <si>
+    <t>Anurag Yadav</t>
+  </si>
+  <si>
+    <t>Pream Pal singh</t>
+  </si>
+  <si>
+    <t>Ram Dhan Rawat</t>
+  </si>
+  <si>
+    <t>Dheeraj Singh</t>
+  </si>
+  <si>
+    <t>Mahesh Chandra</t>
+  </si>
+  <si>
+    <t>Khusab Das Manikpuri</t>
+  </si>
+  <si>
+    <t>Same Das Manikpuri</t>
+  </si>
+  <si>
+    <t>Afraz Khan</t>
+  </si>
+  <si>
+    <t>Ikhedar Khan</t>
+  </si>
+  <si>
+    <t>Aman Hooda</t>
+  </si>
+  <si>
+    <t>Vansh Sharma</t>
+  </si>
+  <si>
+    <t>Manish Kumar Sharma</t>
+  </si>
+  <si>
+    <t>Suryansh Tiwari</t>
+  </si>
+  <si>
+    <t>Pradeep Kumar Tiwari</t>
+  </si>
+  <si>
+    <t>Anand Prakash</t>
+  </si>
+  <si>
+    <t>Shrikant Shukla</t>
+  </si>
+  <si>
+    <t>Satendra Kumar</t>
+  </si>
+  <si>
+    <t>Uday Tiwari</t>
+  </si>
+  <si>
+    <t>Ashok Tiwari</t>
+  </si>
+  <si>
+    <t>Sailesh Kumar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vinod Kumar   </t>
+  </si>
+  <si>
+    <t>Abhishek Pratap Singh</t>
+  </si>
+  <si>
+    <t>Veer Bahadur Singh</t>
+  </si>
+  <si>
+    <t>Ram Prakash</t>
+  </si>
+  <si>
+    <t>Parvinder Singh</t>
+  </si>
+  <si>
+    <t>Ranjeet Singh</t>
+  </si>
+  <si>
+    <t>Siddharth Singh</t>
+  </si>
+  <si>
+    <t>Laxmi Shankar</t>
+  </si>
+  <si>
+    <t>Rajbahadur</t>
+  </si>
+  <si>
+    <t>Shiv Balak</t>
+  </si>
+  <si>
+    <t>Narendra Yadav</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ram Bahadur   </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1070,9 +1382,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1090,32 +1402,28 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1433,10 +1741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J129"/>
+  <dimension ref="A1:J227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="C131" sqref="C131"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="E128" sqref="E128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1444,7 +1752,7 @@
     <col min="2" max="2" width="9" style="1"/>
     <col min="3" max="3" width="26" style="2" customWidth="1"/>
     <col min="4" max="4" width="30.5546875" customWidth="1"/>
-    <col min="5" max="5" width="32.109375" customWidth="1"/>
+    <col min="5" max="5" width="32.109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="31.5546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="22.77734375" style="1" customWidth="1"/>
     <col min="8" max="8" width="18.109375" style="1" customWidth="1"/>
@@ -1465,7 +1773,7 @@
       <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="11" t="s">
@@ -1489,7 +1797,7 @@
       <c r="B2" s="11"/>
       <c r="C2" s="12"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="E2" s="11"/>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
@@ -1507,7 +1815,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="E3" s="15">
         <v>37746</v>
@@ -1525,7 +1833,7 @@
         <v>10</v>
       </c>
       <c r="J3" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1535,11 +1843,11 @@
       <c r="B4" s="1">
         <v>1002</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>315</v>
+      <c r="C4" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>308</v>
+        <v>255</v>
       </c>
       <c r="E4" s="3">
         <v>38476</v>
@@ -1557,7 +1865,7 @@
         <v>10</v>
       </c>
       <c r="J4" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1568,13 +1876,13 @@
         <v>1003</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="F5" s="1">
         <v>9628807872</v>
@@ -1589,7 +1897,7 @@
         <v>10</v>
       </c>
       <c r="J5" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1600,13 +1908,13 @@
         <v>1004</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="F6" s="1">
         <v>8127608153</v>
@@ -1621,7 +1929,7 @@
         <v>10</v>
       </c>
       <c r="J6" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1632,10 +1940,10 @@
         <v>1005</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="E7" s="3">
         <v>38082</v>
@@ -1653,7 +1961,7 @@
         <v>10</v>
       </c>
       <c r="J7" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1664,10 +1972,10 @@
         <v>1006</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="E8" s="3">
         <v>38698</v>
@@ -1685,7 +1993,7 @@
         <v>10</v>
       </c>
       <c r="J8" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1695,11 +2003,11 @@
       <c r="B9" s="1">
         <v>1007</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>316</v>
+      <c r="C9" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="E9" s="3">
         <v>38573</v>
@@ -1717,7 +2025,7 @@
         <v>10</v>
       </c>
       <c r="J9" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1728,13 +2036,13 @@
         <v>1008</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="F10" s="1">
         <v>7080127860</v>
@@ -1749,7 +2057,7 @@
         <v>10</v>
       </c>
       <c r="J10" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1760,10 +2068,10 @@
         <v>1009</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="E11" s="3">
         <v>37720</v>
@@ -1781,7 +2089,7 @@
         <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1792,13 +2100,13 @@
         <v>1010</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="F12" s="1">
         <v>6306033979</v>
@@ -1813,7 +2121,7 @@
         <v>10</v>
       </c>
       <c r="J12" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1823,11 +2131,11 @@
       <c r="B13" s="1">
         <v>1011</v>
       </c>
-      <c r="C13" s="18" t="s">
-        <v>317</v>
+      <c r="C13" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="E13" s="3">
         <v>38111</v>
@@ -1845,7 +2153,7 @@
         <v>10</v>
       </c>
       <c r="J13" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1856,10 +2164,10 @@
         <v>1012</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="E14" s="3">
         <v>38697</v>
@@ -1877,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="J14" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1888,13 +2196,13 @@
         <v>1013</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="F15" s="1">
         <v>6393132092</v>
@@ -1909,7 +2217,7 @@
         <v>10</v>
       </c>
       <c r="J15" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1920,10 +2228,10 @@
         <v>1014</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="E16" s="3">
         <v>38142</v>
@@ -1941,7 +2249,7 @@
         <v>10</v>
       </c>
       <c r="J16" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1952,10 +2260,10 @@
         <v>1015</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="E17" s="3">
         <v>38504</v>
@@ -1973,7 +2281,7 @@
         <v>10</v>
       </c>
       <c r="J17" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1984,10 +2292,10 @@
         <v>1016</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="E18" s="3">
         <v>38899</v>
@@ -2005,7 +2313,7 @@
         <v>10</v>
       </c>
       <c r="J18" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2016,13 +2324,13 @@
         <v>1017</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="F19" s="1">
         <v>7307993138</v>
@@ -2037,7 +2345,7 @@
         <v>10</v>
       </c>
       <c r="J19" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2048,13 +2356,13 @@
         <v>1018</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D20" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="F20" s="1">
         <v>8840410184</v>
@@ -2069,7 +2377,7 @@
         <v>10</v>
       </c>
       <c r="J20" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2080,13 +2388,13 @@
         <v>1019</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="F21" s="1">
         <v>7393803321</v>
@@ -2101,7 +2409,7 @@
         <v>10</v>
       </c>
       <c r="J21" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -2112,13 +2420,13 @@
         <v>1020</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="F22" s="1">
         <v>6387204459</v>
@@ -2133,7 +2441,7 @@
         <v>10</v>
       </c>
       <c r="J22" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -2144,13 +2452,13 @@
         <v>1021</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="F23" s="1">
         <v>9170042714</v>
@@ -2165,7 +2473,7 @@
         <v>10</v>
       </c>
       <c r="J23" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -2176,10 +2484,10 @@
         <v>1022</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>309</v>
+        <v>235</v>
       </c>
       <c r="E24" s="3">
         <v>37655</v>
@@ -2197,7 +2505,7 @@
         <v>10</v>
       </c>
       <c r="J24" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2207,14 +2515,14 @@
       <c r="B25" s="1">
         <v>1023</v>
       </c>
-      <c r="C25" s="18" t="s">
-        <v>318</v>
+      <c r="C25" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="F25" s="1">
         <v>7880593130</v>
@@ -2229,7 +2537,7 @@
         <v>10</v>
       </c>
       <c r="J25" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -2240,13 +2548,13 @@
         <v>1024</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D26" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="F26" s="1">
         <v>9794218757</v>
@@ -2261,7 +2569,7 @@
         <v>10</v>
       </c>
       <c r="J26" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2271,14 +2579,14 @@
       <c r="B27" s="1">
         <v>1025</v>
       </c>
-      <c r="C27" s="18" t="s">
-        <v>319</v>
+      <c r="C27" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="D27" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="F27" s="1">
         <v>7080491421</v>
@@ -2293,7 +2601,7 @@
         <v>10</v>
       </c>
       <c r="J27" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -2304,13 +2612,13 @@
         <v>1026</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D28" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="F28" s="1">
         <v>9936751929</v>
@@ -2325,7 +2633,7 @@
         <v>10</v>
       </c>
       <c r="J28" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2336,13 +2644,13 @@
         <v>1027</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D29" t="s">
-        <v>310</v>
+        <v>230</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="F29" s="1">
         <v>6386525235</v>
@@ -2357,7 +2665,7 @@
         <v>10</v>
       </c>
       <c r="J29" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -2368,13 +2676,13 @@
         <v>1028</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D30" t="s">
-        <v>311</v>
+        <v>229</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="F30" s="1">
         <v>9415776652</v>
@@ -2389,7 +2697,7 @@
         <v>10</v>
       </c>
       <c r="J30" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -2400,13 +2708,13 @@
         <v>1029</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D31" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="F31" s="9">
         <v>6388307227</v>
@@ -2421,7 +2729,7 @@
         <v>10</v>
       </c>
       <c r="J31" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -2432,10 +2740,10 @@
         <v>1030</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D32" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="E32" s="8">
         <v>37622</v>
@@ -2453,7 +2761,7 @@
         <v>10</v>
       </c>
       <c r="J32" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2464,10 +2772,10 @@
         <v>1031</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D33" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="E33" s="8">
         <v>35916</v>
@@ -2485,7 +2793,7 @@
         <v>10</v>
       </c>
       <c r="J33" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2496,10 +2804,10 @@
         <v>1032</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D34" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="E34" s="8">
         <v>34280</v>
@@ -2517,7 +2825,7 @@
         <v>10</v>
       </c>
       <c r="J34" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -2528,10 +2836,10 @@
         <v>1033</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D35" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="E35" s="8">
         <v>37622</v>
@@ -2549,7 +2857,7 @@
         <v>10</v>
       </c>
       <c r="J35" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2560,10 +2868,10 @@
         <v>1034</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D36" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="E36" s="8">
         <v>38056</v>
@@ -2581,7 +2889,7 @@
         <v>10</v>
       </c>
       <c r="J36" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -2592,10 +2900,10 @@
         <v>1035</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D37" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="E37" s="8">
         <v>35065</v>
@@ -2613,7 +2921,7 @@
         <v>10</v>
       </c>
       <c r="J37" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -2624,13 +2932,13 @@
         <v>1036</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D38" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="F38" s="9">
         <v>6387509660</v>
@@ -2645,7 +2953,7 @@
         <v>10</v>
       </c>
       <c r="J38" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -2656,10 +2964,10 @@
         <v>1037</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D39" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="E39" s="8">
         <v>37323</v>
@@ -2677,7 +2985,7 @@
         <v>10</v>
       </c>
       <c r="J39" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2688,10 +2996,10 @@
         <v>1038</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D40" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="E40" s="8">
         <v>39209</v>
@@ -2709,7 +3017,7 @@
         <v>10</v>
       </c>
       <c r="J40" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -2720,13 +3028,13 @@
         <v>1039</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D41" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="F41" s="9">
         <v>8601245672</v>
@@ -2741,7 +3049,7 @@
         <v>10</v>
       </c>
       <c r="J41" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -2752,13 +3060,13 @@
         <v>1040</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D42" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="F42" s="9">
         <v>7982142319</v>
@@ -2773,7 +3081,7 @@
         <v>10</v>
       </c>
       <c r="J42" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -2784,13 +3092,13 @@
         <v>1041</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D43" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="F43" s="9">
         <v>9140870287</v>
@@ -2805,7 +3113,7 @@
         <v>10</v>
       </c>
       <c r="J43" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -2816,10 +3124,10 @@
         <v>1042</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D44" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="E44" s="8">
         <v>38635</v>
@@ -2837,7 +3145,7 @@
         <v>10</v>
       </c>
       <c r="J44" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2848,10 +3156,10 @@
         <v>1043</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D45" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="E45" s="8">
         <v>35225</v>
@@ -2869,7 +3177,7 @@
         <v>10</v>
       </c>
       <c r="J45" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -2880,10 +3188,10 @@
         <v>1044</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D46" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="E46" s="8">
         <v>38027</v>
@@ -2901,7 +3209,7 @@
         <v>10</v>
       </c>
       <c r="J46" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -2912,13 +3220,13 @@
         <v>1045</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D47" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="F47" s="9">
         <v>7838618581</v>
@@ -2933,7 +3241,7 @@
         <v>10</v>
       </c>
       <c r="J47" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2944,13 +3252,13 @@
         <v>1046</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D48" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="F48" s="9">
         <v>9235842134</v>
@@ -2965,7 +3273,7 @@
         <v>10</v>
       </c>
       <c r="J48" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -2976,13 +3284,13 @@
         <v>1047</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D49" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="F49" s="9">
         <v>9336921378</v>
@@ -2997,7 +3305,7 @@
         <v>10</v>
       </c>
       <c r="J49" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -3008,10 +3316,10 @@
         <v>1048</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D50" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="E50" s="8">
         <v>35309</v>
@@ -3029,7 +3337,7 @@
         <v>10</v>
       </c>
       <c r="J50" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -3040,10 +3348,10 @@
         <v>1049</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D51" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="E51" s="8">
         <v>36079</v>
@@ -3061,7 +3369,7 @@
         <v>10</v>
       </c>
       <c r="J51" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -3072,13 +3380,13 @@
         <v>1050</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D52" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="F52" s="9">
         <v>6393914060</v>
@@ -3093,7 +3401,7 @@
         <v>10</v>
       </c>
       <c r="J52" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -3104,10 +3412,10 @@
         <v>1051</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D53" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="E53" s="8">
         <v>38691</v>
@@ -3125,7 +3433,7 @@
         <v>10</v>
       </c>
       <c r="J53" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -3136,10 +3444,10 @@
         <v>1052</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D54" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="E54" s="8">
         <v>35283</v>
@@ -3157,7 +3465,7 @@
         <v>10</v>
       </c>
       <c r="J54" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -3168,13 +3476,13 @@
         <v>1053</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D55" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="F55" s="9">
         <v>7800782810</v>
@@ -3189,7 +3497,7 @@
         <v>10</v>
       </c>
       <c r="J55" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -3200,10 +3508,10 @@
         <v>1054</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D56" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="E56" s="8">
         <v>39240</v>
@@ -3221,7 +3529,7 @@
         <v>10</v>
       </c>
       <c r="J56" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -3232,13 +3540,13 @@
         <v>1055</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D57" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="F57" s="9">
         <v>7317395724</v>
@@ -3253,7 +3561,7 @@
         <v>10</v>
       </c>
       <c r="J57" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -3264,13 +3572,13 @@
         <v>1056</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D58" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="F58" s="9">
         <v>7219372574</v>
@@ -3285,7 +3593,7 @@
         <v>10</v>
       </c>
       <c r="J58" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -3296,10 +3604,10 @@
         <v>1057</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D59" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="E59" s="8">
         <v>37719</v>
@@ -3317,7 +3625,7 @@
         <v>10</v>
       </c>
       <c r="J59" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -3328,13 +3636,13 @@
         <v>1058</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D60" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="F60" s="9">
         <v>6387408874</v>
@@ -3349,7 +3657,7 @@
         <v>10</v>
       </c>
       <c r="J60" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -3360,13 +3668,13 @@
         <v>1059</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D61" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="F61" s="9">
         <v>9984231097</v>
@@ -3381,7 +3689,7 @@
         <v>10</v>
       </c>
       <c r="J61" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -3392,13 +3700,13 @@
         <v>1060</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D62" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="F62" s="9">
         <v>8853266175</v>
@@ -3413,7 +3721,7 @@
         <v>10</v>
       </c>
       <c r="J62" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -3424,13 +3732,13 @@
         <v>1061</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D63" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="F63" s="9">
         <v>6389691309</v>
@@ -3445,7 +3753,7 @@
         <v>10</v>
       </c>
       <c r="J63" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -3456,10 +3764,10 @@
         <v>1062</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D64" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="E64" s="8">
         <v>38482</v>
@@ -3477,7 +3785,7 @@
         <v>10</v>
       </c>
       <c r="J64" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -3488,10 +3796,10 @@
         <v>1063</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D65" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="E65" s="8">
         <v>35345</v>
@@ -3509,7 +3817,7 @@
         <v>10</v>
       </c>
       <c r="J65" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -3520,13 +3828,13 @@
         <v>1064</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D66" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="F66" s="9">
         <v>9569943535</v>
@@ -3541,7 +3849,7 @@
         <v>10</v>
       </c>
       <c r="J66" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -3552,13 +3860,13 @@
         <v>1065</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D67" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="F67" s="9">
         <v>8930629161</v>
@@ -3573,7 +3881,7 @@
         <v>10</v>
       </c>
       <c r="J67" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -3584,10 +3892,10 @@
         <v>1066</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D68" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="E68" s="8">
         <v>38019</v>
@@ -3605,7 +3913,7 @@
         <v>10</v>
       </c>
       <c r="J68" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -3616,13 +3924,13 @@
         <v>1067</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D69" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="F69" s="9">
         <v>9651505276</v>
@@ -3637,7 +3945,7 @@
         <v>10</v>
       </c>
       <c r="J69" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -3648,10 +3956,10 @@
         <v>1068</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D70" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="E70" s="8">
         <v>37622</v>
@@ -3669,7 +3977,7 @@
         <v>10</v>
       </c>
       <c r="J70" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -3680,13 +3988,13 @@
         <v>1069</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D71" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="F71" s="9">
         <v>9761888423</v>
@@ -3701,7 +4009,7 @@
         <v>10</v>
       </c>
       <c r="J71" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -3712,13 +4020,13 @@
         <v>1070</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D72" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="F72" s="9">
         <v>9313484261</v>
@@ -3733,7 +4041,7 @@
         <v>10</v>
       </c>
       <c r="J72" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -3744,10 +4052,10 @@
         <v>1071</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D73" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="E73" s="8">
         <v>38359</v>
@@ -3765,7 +4073,7 @@
         <v>10</v>
       </c>
       <c r="J73" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -3776,10 +4084,10 @@
         <v>1072</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D74" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="E74" s="8">
         <v>38813</v>
@@ -3797,7 +4105,7 @@
         <v>10</v>
       </c>
       <c r="J74" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -3808,13 +4116,13 @@
         <v>1073</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D75" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="F75" s="9">
         <v>9520965439</v>
@@ -3829,7 +4137,7 @@
         <v>10</v>
       </c>
       <c r="J75" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -3840,10 +4148,10 @@
         <v>1074</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D76" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="E76" s="8">
         <v>39147</v>
@@ -3861,7 +4169,7 @@
         <v>10</v>
       </c>
       <c r="J76" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -3872,10 +4180,10 @@
         <v>1075</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D77" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="E77" s="8">
         <v>38018</v>
@@ -3893,7 +4201,7 @@
         <v>10</v>
       </c>
       <c r="J77" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -3904,13 +4212,13 @@
         <v>1076</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D78" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="F78" s="9">
         <v>8922026434</v>
@@ -3925,7 +4233,7 @@
         <v>10</v>
       </c>
       <c r="J78" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -3936,13 +4244,13 @@
         <v>1077</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D79" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="F79" s="9">
         <v>9716359292</v>
@@ -3957,7 +4265,7 @@
         <v>10</v>
       </c>
       <c r="J79" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -3968,13 +4276,13 @@
         <v>1078</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D80" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="F80" s="9">
         <v>9005594248</v>
@@ -3989,7 +4297,7 @@
         <v>10</v>
       </c>
       <c r="J80" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -4000,10 +4308,10 @@
         <v>1079</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D81" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E81" s="8">
         <v>37502</v>
@@ -4021,7 +4329,7 @@
         <v>10</v>
       </c>
       <c r="J81" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -4032,10 +4340,10 @@
         <v>1080</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D82" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="E82" s="8">
         <v>38450</v>
@@ -4053,7 +4361,7 @@
         <v>10</v>
       </c>
       <c r="J82" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -4063,16 +4371,16 @@
       <c r="B83" s="1">
         <v>1081</v>
       </c>
-      <c r="C83" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="E83" s="16">
+      <c r="C83" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D83" t="s">
+        <v>179</v>
+      </c>
+      <c r="E83" s="8">
         <v>38507</v>
       </c>
-      <c r="F83" s="17">
+      <c r="F83" s="9">
         <v>96151912369</v>
       </c>
       <c r="G83" s="3">
@@ -4085,7 +4393,7 @@
         <v>10</v>
       </c>
       <c r="J83" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -4096,13 +4404,13 @@
         <v>1082</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D84" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="F84" s="9">
         <v>7839151637</v>
@@ -4117,7 +4425,7 @@
         <v>10</v>
       </c>
       <c r="J84" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -4128,10 +4436,10 @@
         <v>1083</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D85" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="E85" s="8">
         <v>38933</v>
@@ -4149,7 +4457,7 @@
         <v>10</v>
       </c>
       <c r="J85" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -4160,13 +4468,13 @@
         <v>1084</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D86" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="F86" s="9">
         <v>9415789251</v>
@@ -4181,7 +4489,7 @@
         <v>10</v>
       </c>
       <c r="J86" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -4192,13 +4500,13 @@
         <v>1085</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D87" t="s">
-        <v>312</v>
+        <v>143</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F87" s="9">
         <v>9889763764</v>
@@ -4213,7 +4521,7 @@
         <v>10</v>
       </c>
       <c r="J87" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -4224,10 +4532,10 @@
         <v>1086</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D88" t="s">
-        <v>313</v>
+        <v>175</v>
       </c>
       <c r="E88" s="8">
         <v>38724</v>
@@ -4245,7 +4553,7 @@
         <v>10</v>
       </c>
       <c r="J88" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -4256,10 +4564,10 @@
         <v>1087</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D89" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="E89" s="8">
         <v>38749</v>
@@ -4277,7 +4585,7 @@
         <v>10</v>
       </c>
       <c r="J89" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -4288,10 +4596,10 @@
         <v>1088</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D90" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E90" s="8">
         <v>37987</v>
@@ -4309,7 +4617,7 @@
         <v>10</v>
       </c>
       <c r="J90" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -4320,13 +4628,13 @@
         <v>1089</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D91" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="F91" s="9">
         <v>7054636369</v>
@@ -4341,7 +4649,7 @@
         <v>10</v>
       </c>
       <c r="J91" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -4352,10 +4660,10 @@
         <v>1090</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D92" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="E92" s="8">
         <v>39085</v>
@@ -4373,7 +4681,7 @@
         <v>10</v>
       </c>
       <c r="J92" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -4384,10 +4692,10 @@
         <v>1091</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D93" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="E93" s="8">
         <v>37080</v>
@@ -4405,7 +4713,7 @@
         <v>10</v>
       </c>
       <c r="J93" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -4416,13 +4724,13 @@
         <v>1092</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D94" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="F94" s="9">
         <v>8303819846</v>
@@ -4437,7 +4745,7 @@
         <v>10</v>
       </c>
       <c r="J94" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -4448,10 +4756,10 @@
         <v>1093</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D95" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="E95" s="8">
         <v>38819</v>
@@ -4469,7 +4777,7 @@
         <v>10</v>
       </c>
       <c r="J95" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -4480,10 +4788,10 @@
         <v>1094</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D96" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E96" s="8">
         <v>38724</v>
@@ -4501,7 +4809,7 @@
         <v>10</v>
       </c>
       <c r="J96" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -4512,13 +4820,13 @@
         <v>1095</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D97" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="F97" s="9">
         <v>7525801727</v>
@@ -4533,7 +4841,7 @@
         <v>10</v>
       </c>
       <c r="J97" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -4544,10 +4852,10 @@
         <v>1096</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D98" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="E98" s="8">
         <v>38049</v>
@@ -4565,7 +4873,7 @@
         <v>10</v>
       </c>
       <c r="J98" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -4576,13 +4884,13 @@
         <v>1097</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D99" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="F99" s="9">
         <v>7651847237</v>
@@ -4597,7 +4905,7 @@
         <v>10</v>
       </c>
       <c r="J99" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -4608,13 +4916,13 @@
         <v>1098</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D100" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="F100" s="9">
         <v>7706888649</v>
@@ -4629,7 +4937,7 @@
         <v>10</v>
       </c>
       <c r="J100" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -4640,10 +4948,10 @@
         <v>1099</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D101" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="E101" s="8">
         <v>38785</v>
@@ -4661,7 +4969,7 @@
         <v>10</v>
       </c>
       <c r="J101" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -4672,13 +4980,13 @@
         <v>1100</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D102" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="F102" s="9">
         <v>7392888001</v>
@@ -4693,7 +5001,7 @@
         <v>10</v>
       </c>
       <c r="J102" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="103" spans="1:10">
@@ -4704,10 +5012,10 @@
         <v>1101</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D103" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E103" s="8">
         <v>38353</v>
@@ -4725,7 +5033,7 @@
         <v>10</v>
       </c>
       <c r="J103" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -4736,13 +5044,13 @@
         <v>1102</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D104" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="F104" s="9">
         <v>8317033704</v>
@@ -4757,7 +5065,7 @@
         <v>10</v>
       </c>
       <c r="J104" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="105" spans="1:10">
@@ -4768,13 +5076,13 @@
         <v>1103</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D105" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="F105" s="9">
         <v>7300892022</v>
@@ -4789,7 +5097,7 @@
         <v>10</v>
       </c>
       <c r="J105" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -4800,10 +5108,10 @@
         <v>1104</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D106" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="E106" s="8">
         <v>39481</v>
@@ -4821,7 +5129,7 @@
         <v>10</v>
       </c>
       <c r="J106" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="107" spans="1:10">
@@ -4832,13 +5140,13 @@
         <v>1105</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D107" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="F107" s="9">
         <v>8081164913</v>
@@ -4853,7 +5161,7 @@
         <v>10</v>
       </c>
       <c r="J107" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -4864,10 +5172,10 @@
         <v>1106</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D108" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E108" s="8">
         <v>37992</v>
@@ -4885,7 +5193,7 @@
         <v>10</v>
       </c>
       <c r="J108" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="109" spans="1:10">
@@ -4896,13 +5204,13 @@
         <v>1107</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D109" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="F109" s="9">
         <v>9118230067</v>
@@ -4917,7 +5225,7 @@
         <v>10</v>
       </c>
       <c r="J109" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -4928,13 +5236,13 @@
         <v>1108</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D110" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="F110" s="9">
         <v>9044952362</v>
@@ -4949,7 +5257,7 @@
         <v>10</v>
       </c>
       <c r="J110" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="111" spans="1:10">
@@ -4960,13 +5268,13 @@
         <v>1109</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D111" t="s">
-        <v>314</v>
+        <v>154</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="F111" s="9">
         <v>7398522285</v>
@@ -4981,7 +5289,7 @@
         <v>10</v>
       </c>
       <c r="J111" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="112" spans="1:10">
@@ -4992,10 +5300,10 @@
         <v>1110</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D112" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="E112" s="8">
         <v>38777</v>
@@ -5013,7 +5321,7 @@
         <v>10</v>
       </c>
       <c r="J112" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="113" spans="1:10">
@@ -5024,13 +5332,13 @@
         <v>1111</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D113" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="F113" s="9">
         <v>7007275308</v>
@@ -5045,7 +5353,7 @@
         <v>10</v>
       </c>
       <c r="J113" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="114" spans="1:10">
@@ -5056,10 +5364,10 @@
         <v>1112</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D114" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="E114" s="8">
         <v>38269</v>
@@ -5077,7 +5385,7 @@
         <v>10</v>
       </c>
       <c r="J114" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="115" spans="1:10">
@@ -5088,10 +5396,10 @@
         <v>1113</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D115" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E115" s="8">
         <v>38574</v>
@@ -5109,7 +5417,7 @@
         <v>10</v>
       </c>
       <c r="J115" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="116" spans="1:10">
@@ -5120,13 +5428,13 @@
         <v>1114</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D116" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="F116" s="9">
         <v>9918487854</v>
@@ -5141,7 +5449,7 @@
         <v>10</v>
       </c>
       <c r="J116" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="117" spans="1:10">
@@ -5152,10 +5460,10 @@
         <v>1115</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D117" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E117" s="8">
         <v>38760</v>
@@ -5173,7 +5481,7 @@
         <v>10</v>
       </c>
       <c r="J117" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="118" spans="1:10">
@@ -5184,13 +5492,13 @@
         <v>1116</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D118" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="F118" s="9">
         <v>9450771276</v>
@@ -5205,7 +5513,7 @@
         <v>10</v>
       </c>
       <c r="J118" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="119" spans="1:10">
@@ -5216,10 +5524,10 @@
         <v>1117</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D119" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E119" s="8">
         <v>38537</v>
@@ -5237,7 +5545,7 @@
         <v>10</v>
       </c>
       <c r="J119" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="120" spans="1:10">
@@ -5248,10 +5556,10 @@
         <v>1118</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D120" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E120" s="8">
         <v>37382</v>
@@ -5269,7 +5577,7 @@
         <v>10</v>
       </c>
       <c r="J120" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="121" spans="1:10">
@@ -5280,13 +5588,13 @@
         <v>1119</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D121" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="F121" s="9">
         <v>8303408711</v>
@@ -5301,7 +5609,7 @@
         <v>10</v>
       </c>
       <c r="J121" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="122" spans="1:10">
@@ -5312,10 +5620,10 @@
         <v>1120</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D122" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E122" s="8">
         <v>39028</v>
@@ -5333,7 +5641,7 @@
         <v>10</v>
       </c>
       <c r="J122" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="123" spans="1:10">
@@ -5344,13 +5652,13 @@
         <v>1121</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D123" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="F123" s="9">
         <v>8532047971</v>
@@ -5365,7 +5673,7 @@
         <v>10</v>
       </c>
       <c r="J123" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="124" spans="1:10">
@@ -5376,10 +5684,10 @@
         <v>1122</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D124" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E124" s="8">
         <v>38779</v>
@@ -5397,7 +5705,7 @@
         <v>10</v>
       </c>
       <c r="J124" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="125" spans="1:10">
@@ -5408,13 +5716,13 @@
         <v>1123</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D125" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="F125" s="9">
         <v>8787036805</v>
@@ -5429,7 +5737,7 @@
         <v>10</v>
       </c>
       <c r="J125" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="126" spans="1:10">
@@ -5440,10 +5748,10 @@
         <v>1124</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D126" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E126" s="8">
         <v>37991</v>
@@ -5461,7 +5769,7 @@
         <v>10</v>
       </c>
       <c r="J126" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="127" spans="1:10">
@@ -5472,10 +5780,10 @@
         <v>1125</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D127" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E127" s="8">
         <v>39114</v>
@@ -5493,7 +5801,7 @@
         <v>10</v>
       </c>
       <c r="J127" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="128" spans="1:10">
@@ -5504,10 +5812,10 @@
         <v>1126</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D128" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E128" s="8">
         <v>38329</v>
@@ -5525,7 +5833,7 @@
         <v>10</v>
       </c>
       <c r="J128" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="129" spans="1:10">
@@ -5536,10 +5844,10 @@
         <v>1127</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D129" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E129" s="8">
         <v>38816</v>
@@ -5557,11 +5865,973 @@
         <v>10</v>
       </c>
       <c r="J129" t="s">
-        <v>307</v>
-      </c>
+        <v>319</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="A130">
+        <v>128</v>
+      </c>
+      <c r="B130" s="1">
+        <v>1128</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="D130" t="s">
+        <v>389</v>
+      </c>
+      <c r="E130" s="3">
+        <v>39593</v>
+      </c>
+      <c r="F130" s="1">
+        <v>7985936842</v>
+      </c>
+      <c r="G130" s="3">
+        <v>45704</v>
+      </c>
+      <c r="H130" s="4">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="I130" t="s">
+        <v>10</v>
+      </c>
+      <c r="J130" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
+      <c r="A131">
+        <v>129</v>
+      </c>
+      <c r="B131" s="1">
+        <v>1129</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D131" t="s">
+        <v>391</v>
+      </c>
+      <c r="E131" s="3">
+        <v>39471</v>
+      </c>
+      <c r="F131" s="1">
+        <v>7985625660</v>
+      </c>
+      <c r="G131" s="3">
+        <v>45704</v>
+      </c>
+      <c r="H131" s="4">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="I131" t="s">
+        <v>10</v>
+      </c>
+      <c r="J131" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
+      <c r="A132">
+        <v>130</v>
+      </c>
+      <c r="B132" s="1">
+        <v>1130</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D132" t="s">
+        <v>393</v>
+      </c>
+      <c r="E132" s="3">
+        <v>38545</v>
+      </c>
+      <c r="F132" s="1">
+        <v>9219721713</v>
+      </c>
+      <c r="G132" s="3">
+        <v>45704</v>
+      </c>
+      <c r="H132" s="4">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="I132" t="s">
+        <v>10</v>
+      </c>
+      <c r="J132" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
+      <c r="A133">
+        <v>131</v>
+      </c>
+      <c r="B133" s="1">
+        <v>1131</v>
+      </c>
+      <c r="C133" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="E133" s="15">
+        <v>38616</v>
+      </c>
+      <c r="F133" s="6">
+        <v>6392468830</v>
+      </c>
+      <c r="G133" s="3">
+        <v>45704</v>
+      </c>
+      <c r="H133" s="4">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="I133" t="s">
+        <v>10</v>
+      </c>
+      <c r="J133" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
+      <c r="A134">
+        <v>132</v>
+      </c>
+      <c r="B134" s="1">
+        <v>1132</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D134" t="s">
+        <v>396</v>
+      </c>
+      <c r="E134" s="3">
+        <v>38140</v>
+      </c>
+      <c r="F134" s="1">
+        <v>8090422583</v>
+      </c>
+      <c r="G134" s="3">
+        <v>45704</v>
+      </c>
+      <c r="H134" s="4">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="I134" t="s">
+        <v>10</v>
+      </c>
+      <c r="J134" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
+      <c r="A135">
+        <v>133</v>
+      </c>
+      <c r="B135" s="1">
+        <v>1133</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D135" t="s">
+        <v>398</v>
+      </c>
+      <c r="E135" s="3">
+        <v>39010</v>
+      </c>
+      <c r="F135" s="1">
+        <v>7017481388</v>
+      </c>
+      <c r="G135" s="3">
+        <v>45704</v>
+      </c>
+      <c r="H135" s="4">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="I135" t="s">
+        <v>10</v>
+      </c>
+      <c r="J135" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
+      <c r="A136">
+        <v>134</v>
+      </c>
+      <c r="B136" s="1">
+        <v>1134</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D136" t="s">
+        <v>400</v>
+      </c>
+      <c r="E136" s="3">
+        <v>38583</v>
+      </c>
+      <c r="F136" s="1">
+        <v>7860984461</v>
+      </c>
+      <c r="G136" s="3">
+        <v>45704</v>
+      </c>
+      <c r="H136" s="4">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="I136" t="s">
+        <v>10</v>
+      </c>
+      <c r="J136" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
+      <c r="A137">
+        <v>135</v>
+      </c>
+      <c r="B137" s="1">
+        <v>1135</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="D137" t="s">
+        <v>402</v>
+      </c>
+      <c r="E137" s="3">
+        <v>38471</v>
+      </c>
+      <c r="F137" s="1">
+        <v>7505775598</v>
+      </c>
+      <c r="G137" s="3">
+        <v>45704</v>
+      </c>
+      <c r="H137" s="4">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="I137" t="s">
+        <v>10</v>
+      </c>
+      <c r="J137" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
+      <c r="A138">
+        <v>136</v>
+      </c>
+      <c r="B138" s="1">
+        <v>1136</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="D138" t="s">
+        <v>408</v>
+      </c>
+      <c r="E138" s="3">
+        <v>38693</v>
+      </c>
+      <c r="F138" s="1">
+        <v>9266568173</v>
+      </c>
+      <c r="G138" s="3">
+        <v>45704</v>
+      </c>
+      <c r="H138" s="4">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="I138" t="s">
+        <v>10</v>
+      </c>
+      <c r="J138" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
+      <c r="A139">
+        <v>137</v>
+      </c>
+      <c r="B139" s="1">
+        <v>1137</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="D139" t="s">
+        <v>405</v>
+      </c>
+      <c r="E139" s="3">
+        <v>38328</v>
+      </c>
+      <c r="F139" s="1">
+        <v>9598864967</v>
+      </c>
+      <c r="G139" s="3">
+        <v>45704</v>
+      </c>
+      <c r="H139" s="4">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="I139" t="s">
+        <v>10</v>
+      </c>
+      <c r="J139" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
+      <c r="A140">
+        <v>138</v>
+      </c>
+      <c r="B140" s="1">
+        <v>1138</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D140" t="s">
+        <v>407</v>
+      </c>
+      <c r="E140" s="3">
+        <v>38347</v>
+      </c>
+      <c r="F140" s="1">
+        <v>8601675491</v>
+      </c>
+      <c r="G140" s="3">
+        <v>45704</v>
+      </c>
+      <c r="H140" s="4">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="I140" t="s">
+        <v>10</v>
+      </c>
+      <c r="J140" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
+      <c r="A141">
+        <v>139</v>
+      </c>
+      <c r="B141" s="1">
+        <v>1139</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D141" t="s">
+        <v>214</v>
+      </c>
+      <c r="E141" s="3">
+        <v>38899</v>
+      </c>
+      <c r="F141" s="1">
+        <v>9368817845</v>
+      </c>
+      <c r="G141" s="3">
+        <v>45704</v>
+      </c>
+      <c r="H141" s="4">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="I141" t="s">
+        <v>10</v>
+      </c>
+      <c r="J141" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
+      <c r="A142">
+        <v>140</v>
+      </c>
+      <c r="B142" s="1">
+        <v>1140</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D142" t="s">
+        <v>410</v>
+      </c>
+      <c r="F142" s="1">
+        <v>7985668184</v>
+      </c>
+      <c r="G142" s="3">
+        <v>45704</v>
+      </c>
+      <c r="H142" s="4">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="I142" t="s">
+        <v>10</v>
+      </c>
+      <c r="J142" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
+      <c r="A143">
+        <v>141</v>
+      </c>
+      <c r="B143" s="1">
+        <v>1141</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="D143" t="s">
+        <v>412</v>
+      </c>
+      <c r="F143" s="1">
+        <v>8528414944</v>
+      </c>
+      <c r="G143" s="3">
+        <v>45704</v>
+      </c>
+      <c r="H143" s="4">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="I143" t="s">
+        <v>10</v>
+      </c>
+      <c r="J143" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
+      <c r="A144">
+        <v>142</v>
+      </c>
+      <c r="B144" s="1">
+        <v>1142</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="D144" t="s">
+        <v>414</v>
+      </c>
+      <c r="F144" s="1">
+        <v>9565374449</v>
+      </c>
+      <c r="G144" s="3">
+        <v>45704</v>
+      </c>
+      <c r="H144" s="4">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="I144" t="s">
+        <v>10</v>
+      </c>
+      <c r="J144" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
+      <c r="A145">
+        <v>143</v>
+      </c>
+      <c r="B145" s="1">
+        <v>1143</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D145" t="s">
+        <v>416</v>
+      </c>
+      <c r="F145" s="1">
+        <v>7379571140</v>
+      </c>
+      <c r="G145" s="3">
+        <v>45704</v>
+      </c>
+      <c r="H145" s="4">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="I145" t="s">
+        <v>10</v>
+      </c>
+      <c r="J145" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
+      <c r="A146">
+        <v>144</v>
+      </c>
+      <c r="B146" s="1">
+        <v>1144</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D146" t="s">
+        <v>417</v>
+      </c>
+      <c r="F146" s="1">
+        <v>9540737206</v>
+      </c>
+      <c r="G146" s="3">
+        <v>45704</v>
+      </c>
+      <c r="H146" s="4">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="I146" t="s">
+        <v>10</v>
+      </c>
+      <c r="J146" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
+      <c r="A147">
+        <v>145</v>
+      </c>
+      <c r="B147" s="1">
+        <v>1145</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="D147" t="s">
+        <v>419</v>
+      </c>
+      <c r="F147" s="1">
+        <v>9761888423</v>
+      </c>
+      <c r="G147" s="3">
+        <v>45704</v>
+      </c>
+      <c r="H147" s="4">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="I147" t="s">
+        <v>10</v>
+      </c>
+      <c r="J147" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
+      <c r="A148">
+        <v>146</v>
+      </c>
+      <c r="B148" s="1">
+        <v>1146</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="D148" t="s">
+        <v>421</v>
+      </c>
+      <c r="E148" s="3">
+        <v>38548</v>
+      </c>
+      <c r="F148" s="1">
+        <v>6386105489</v>
+      </c>
+      <c r="G148" s="3">
+        <v>45704</v>
+      </c>
+      <c r="H148" s="4">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="I148" t="s">
+        <v>10</v>
+      </c>
+      <c r="J148" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
+      <c r="A149">
+        <v>147</v>
+      </c>
+      <c r="B149" s="1">
+        <v>1147</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="D149" t="s">
+        <v>423</v>
+      </c>
+      <c r="E149" s="3">
+        <v>36571</v>
+      </c>
+      <c r="F149" s="1">
+        <v>7880808049</v>
+      </c>
+      <c r="G149" s="3">
+        <v>45704</v>
+      </c>
+      <c r="H149" s="4">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="I149" t="s">
+        <v>10</v>
+      </c>
+      <c r="J149" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
+      <c r="A150">
+        <v>148</v>
+      </c>
+      <c r="B150" s="1">
+        <v>1148</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="D150" t="s">
+        <v>425</v>
+      </c>
+      <c r="E150" s="3">
+        <v>36776</v>
+      </c>
+      <c r="F150" s="1">
+        <v>9151383409</v>
+      </c>
+      <c r="G150" s="3">
+        <v>45704</v>
+      </c>
+      <c r="H150" s="4">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="I150" t="s">
+        <v>10</v>
+      </c>
+      <c r="J150" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
+      <c r="G151"/>
+      <c r="H151"/>
+    </row>
+    <row r="152" spans="1:10">
+      <c r="G152"/>
+      <c r="H152"/>
+    </row>
+    <row r="153" spans="1:10">
+      <c r="G153"/>
+      <c r="H153"/>
+    </row>
+    <row r="154" spans="1:10">
+      <c r="G154"/>
+      <c r="H154"/>
+    </row>
+    <row r="155" spans="1:10">
+      <c r="G155"/>
+      <c r="H155"/>
+    </row>
+    <row r="156" spans="1:10">
+      <c r="G156"/>
+      <c r="H156"/>
+    </row>
+    <row r="157" spans="1:10">
+      <c r="G157"/>
+      <c r="H157"/>
+    </row>
+    <row r="158" spans="1:10">
+      <c r="G158"/>
+      <c r="H158"/>
+    </row>
+    <row r="159" spans="1:10">
+      <c r="G159"/>
+      <c r="H159"/>
+    </row>
+    <row r="160" spans="1:10">
+      <c r="G160"/>
+      <c r="H160"/>
+    </row>
+    <row r="161" spans="7:8">
+      <c r="G161"/>
+      <c r="H161"/>
+    </row>
+    <row r="162" spans="7:8">
+      <c r="G162"/>
+      <c r="H162"/>
+    </row>
+    <row r="163" spans="7:8">
+      <c r="G163"/>
+      <c r="H163"/>
+    </row>
+    <row r="164" spans="7:8">
+      <c r="G164"/>
+      <c r="H164"/>
+    </row>
+    <row r="165" spans="7:8">
+      <c r="G165"/>
+      <c r="H165"/>
+    </row>
+    <row r="166" spans="7:8">
+      <c r="G166"/>
+      <c r="H166"/>
+    </row>
+    <row r="167" spans="7:8">
+      <c r="G167"/>
+      <c r="H167"/>
+    </row>
+    <row r="168" spans="7:8">
+      <c r="G168"/>
+      <c r="H168"/>
+    </row>
+    <row r="169" spans="7:8">
+      <c r="G169"/>
+      <c r="H169"/>
+    </row>
+    <row r="170" spans="7:8">
+      <c r="G170"/>
+      <c r="H170"/>
+    </row>
+    <row r="171" spans="7:8">
+      <c r="G171"/>
+      <c r="H171"/>
+    </row>
+    <row r="172" spans="7:8">
+      <c r="G172"/>
+      <c r="H172"/>
+    </row>
+    <row r="173" spans="7:8">
+      <c r="G173"/>
+      <c r="H173"/>
+    </row>
+    <row r="174" spans="7:8">
+      <c r="G174"/>
+      <c r="H174"/>
+    </row>
+    <row r="175" spans="7:8">
+      <c r="G175"/>
+      <c r="H175"/>
+    </row>
+    <row r="176" spans="7:8">
+      <c r="G176"/>
+      <c r="H176"/>
+    </row>
+    <row r="177" spans="7:8">
+      <c r="G177"/>
+      <c r="H177"/>
+    </row>
+    <row r="178" spans="7:8">
+      <c r="G178"/>
+      <c r="H178"/>
+    </row>
+    <row r="179" spans="7:8">
+      <c r="G179"/>
+      <c r="H179"/>
+    </row>
+    <row r="180" spans="7:8">
+      <c r="G180"/>
+      <c r="H180"/>
+    </row>
+    <row r="181" spans="7:8">
+      <c r="G181"/>
+      <c r="H181"/>
+    </row>
+    <row r="182" spans="7:8">
+      <c r="G182"/>
+      <c r="H182"/>
+    </row>
+    <row r="183" spans="7:8">
+      <c r="G183"/>
+      <c r="H183"/>
+    </row>
+    <row r="184" spans="7:8">
+      <c r="G184"/>
+      <c r="H184"/>
+    </row>
+    <row r="185" spans="7:8">
+      <c r="G185"/>
+      <c r="H185"/>
+    </row>
+    <row r="186" spans="7:8">
+      <c r="G186"/>
+      <c r="H186"/>
+    </row>
+    <row r="187" spans="7:8">
+      <c r="G187"/>
+      <c r="H187"/>
+    </row>
+    <row r="188" spans="7:8">
+      <c r="G188"/>
+      <c r="H188"/>
+    </row>
+    <row r="189" spans="7:8">
+      <c r="G189"/>
+      <c r="H189"/>
+    </row>
+    <row r="190" spans="7:8">
+      <c r="G190"/>
+      <c r="H190"/>
+    </row>
+    <row r="191" spans="7:8">
+      <c r="G191"/>
+      <c r="H191"/>
+    </row>
+    <row r="192" spans="7:8">
+      <c r="G192"/>
+      <c r="H192"/>
+    </row>
+    <row r="193" spans="7:8">
+      <c r="G193"/>
+      <c r="H193"/>
+    </row>
+    <row r="194" spans="7:8">
+      <c r="G194"/>
+      <c r="H194"/>
+    </row>
+    <row r="195" spans="7:8">
+      <c r="G195"/>
+      <c r="H195"/>
+    </row>
+    <row r="196" spans="7:8">
+      <c r="G196"/>
+      <c r="H196"/>
+    </row>
+    <row r="197" spans="7:8">
+      <c r="G197"/>
+      <c r="H197"/>
+    </row>
+    <row r="198" spans="7:8">
+      <c r="G198"/>
+      <c r="H198"/>
+    </row>
+    <row r="199" spans="7:8">
+      <c r="G199"/>
+      <c r="H199"/>
+    </row>
+    <row r="200" spans="7:8">
+      <c r="G200"/>
+      <c r="H200"/>
+    </row>
+    <row r="201" spans="7:8">
+      <c r="G201"/>
+      <c r="H201"/>
+    </row>
+    <row r="202" spans="7:8">
+      <c r="G202"/>
+      <c r="H202"/>
+    </row>
+    <row r="203" spans="7:8">
+      <c r="G203"/>
+      <c r="H203"/>
+    </row>
+    <row r="204" spans="7:8">
+      <c r="G204"/>
+      <c r="H204"/>
+    </row>
+    <row r="205" spans="7:8">
+      <c r="G205"/>
+      <c r="H205"/>
+    </row>
+    <row r="206" spans="7:8">
+      <c r="G206"/>
+      <c r="H206"/>
+    </row>
+    <row r="207" spans="7:8">
+      <c r="G207"/>
+      <c r="H207"/>
+    </row>
+    <row r="208" spans="7:8">
+      <c r="G208"/>
+      <c r="H208"/>
+    </row>
+    <row r="209" spans="7:8">
+      <c r="G209"/>
+      <c r="H209"/>
+    </row>
+    <row r="210" spans="7:8">
+      <c r="G210"/>
+      <c r="H210"/>
+    </row>
+    <row r="211" spans="7:8">
+      <c r="G211"/>
+      <c r="H211"/>
+    </row>
+    <row r="212" spans="7:8">
+      <c r="G212"/>
+      <c r="H212"/>
+    </row>
+    <row r="213" spans="7:8">
+      <c r="G213"/>
+      <c r="H213"/>
+    </row>
+    <row r="214" spans="7:8">
+      <c r="G214"/>
+      <c r="H214"/>
+    </row>
+    <row r="215" spans="7:8">
+      <c r="G215"/>
+      <c r="H215"/>
+    </row>
+    <row r="216" spans="7:8">
+      <c r="G216"/>
+      <c r="H216"/>
+    </row>
+    <row r="217" spans="7:8">
+      <c r="G217"/>
+      <c r="H217"/>
+    </row>
+    <row r="218" spans="7:8">
+      <c r="G218"/>
+      <c r="H218"/>
+    </row>
+    <row r="219" spans="7:8">
+      <c r="G219"/>
+      <c r="H219"/>
+    </row>
+    <row r="220" spans="7:8">
+      <c r="G220"/>
+      <c r="H220"/>
+    </row>
+    <row r="221" spans="7:8">
+      <c r="G221"/>
+      <c r="H221"/>
+    </row>
+    <row r="222" spans="7:8">
+      <c r="G222"/>
+      <c r="H222"/>
+    </row>
+    <row r="223" spans="7:8">
+      <c r="G223"/>
+      <c r="H223"/>
+    </row>
+    <row r="224" spans="7:8">
+      <c r="G224"/>
+      <c r="H224"/>
+    </row>
+    <row r="225" spans="7:8">
+      <c r="G225"/>
+      <c r="H225"/>
+    </row>
+    <row r="226" spans="7:8">
+      <c r="G226"/>
+      <c r="H226"/>
+    </row>
+    <row r="227" spans="7:8">
+      <c r="G227"/>
+      <c r="H227"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C1:D2">
     <cfRule type="duplicateValues" dxfId="3" priority="10"/>
   </conditionalFormatting>
@@ -5575,4 +6845,347 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37AE1E73-427C-499C-81BB-EF365C09F87D}">
+  <dimension ref="A2:P45"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="2" spans="1:16">
+      <c r="A2" t="s">
+        <v>320</v>
+      </c>
+      <c r="P2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" t="s">
+        <v>321</v>
+      </c>
+      <c r="P3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" t="s">
+        <v>322</v>
+      </c>
+      <c r="P4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" t="s">
+        <v>323</v>
+      </c>
+      <c r="P5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" t="s">
+        <v>324</v>
+      </c>
+      <c r="P6" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" t="s">
+        <v>325</v>
+      </c>
+      <c r="P7" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" t="s">
+        <v>326</v>
+      </c>
+      <c r="P8" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9">
+        <v>40713</v>
+      </c>
+      <c r="P9" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" t="s">
+        <v>327</v>
+      </c>
+      <c r="P10" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" t="s">
+        <v>328</v>
+      </c>
+      <c r="P11" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" t="s">
+        <v>329</v>
+      </c>
+      <c r="P12" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="P13">
+        <v>7379571140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="P14" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" t="s">
+        <v>330</v>
+      </c>
+      <c r="P15" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="P16" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="P17" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" t="s">
+        <v>331</v>
+      </c>
+      <c r="P18" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" t="s">
+        <v>332</v>
+      </c>
+      <c r="P19" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" t="s">
+        <v>333</v>
+      </c>
+      <c r="P20" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" t="s">
+        <v>334</v>
+      </c>
+      <c r="P21" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" t="s">
+        <v>335</v>
+      </c>
+      <c r="P22" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" t="s">
+        <v>336</v>
+      </c>
+      <c r="P23" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" t="s">
+        <v>337</v>
+      </c>
+      <c r="P24" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" t="s">
+        <v>341</v>
+      </c>
+      <c r="P28">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" t="s">
+        <v>342</v>
+      </c>
+      <c r="P29" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" t="s">
+        <v>343</v>
+      </c>
+      <c r="P30">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" t="s">
+        <v>344</v>
+      </c>
+      <c r="P31" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" t="s">
+        <v>345</v>
+      </c>
+      <c r="P32" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" t="s">
+        <v>346</v>
+      </c>
+      <c r="P33" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" t="s">
+        <v>347</v>
+      </c>
+      <c r="P34" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" t="s">
+        <v>348</v>
+      </c>
+      <c r="P35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" t="s">
+        <v>349</v>
+      </c>
+      <c r="P36">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" t="s">
+        <v>350</v>
+      </c>
+      <c r="P37" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38" t="s">
+        <v>351</v>
+      </c>
+      <c r="P38" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" t="s">
+        <v>352</v>
+      </c>
+      <c r="P39" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40" t="s">
+        <v>353</v>
+      </c>
+      <c r="P40" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41" t="s">
+        <v>354</v>
+      </c>
+      <c r="P41" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42" t="s">
+        <v>355</v>
+      </c>
+      <c r="P42" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45" t="s">
+        <v>358</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>